--- a/data/Huasco.xlsx
+++ b/data/Huasco.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6078,16 +6078,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>CONAF, Región de Atacama</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6126,16 +6126,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CONAF, Región de Atacama</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Huasco.xlsx
+++ b/data/Huasco.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6078,16 +6078,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CONAF, Región de Atacama</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6126,16 +6126,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>CONAF, Región de Atacama</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Huasco.xlsx
+++ b/data/Huasco.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5787,7 +5787,11 @@
           <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6068,7 +6072,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6078,16 +6082,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CONAF, Región de Atacama</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6096,12 +6100,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6116,7 +6120,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6126,16 +6130,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>CONAF, Región de Atacama</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6144,12 +6148,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Huasco.xlsx
+++ b/data/Huasco.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6082,16 +6082,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>CONAF, Región de Atacama</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6100,12 +6100,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6130,16 +6130,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CONAF, Región de Atacama</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6148,12 +6148,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Huasco.xlsx
+++ b/data/Huasco.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6082,16 +6082,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CONAF, Región de Atacama</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6100,12 +6100,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6130,16 +6130,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>CONAF, Región de Atacama</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6148,12 +6148,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Huasco.xlsx
+++ b/data/Huasco.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J188"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación recepción y embarque graneles minerales</t>
+          <t>Línea de Transmisión y Central BESS Halcón 8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Puerto Las Losas S.A.</t>
+          <t>BESS Halcón 8 SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8600</v>
+        <v>43890</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145744311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160827413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Depósito de Relaves Filtrados, Planta de Pellets</t>
+          <t>Modificación recepción y embarque graneles minerales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Puerto Las Losas S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>110000</v>
+        <v>8600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145368252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145744311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Plan Minero Mina Los Colorados</t>
+          <t>Depósito de Relaves Filtrados, Planta de Pellets</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>110000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14/01/2020</t>
+          <t>15/01/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145025521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145368252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Modificación Plan Minero Mina Los Colorados</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,20 +578,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>14/01/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145025521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta Desalinizadora Cerro Blanco</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>350000</v>
+        <v>25000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR NORTE DE PUNTA LOS POZOS, ENSENADA POZO CERRO NEGRO, COMUNA DE HUASCO - III REGIÓN PERT N°215032011</t>
+          <t>Planta Desalinizadora Cerro Blanco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Luis Alejandro Salgado Ibáñez</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7000</v>
+        <v>350000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143281568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR AL SUROESTE DE PUNTA CARRIZAL, COMUNA DE HUASCO - III REGIÓN PERT N°215032012</t>
+          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR NORTE DE PUNTA LOS POZOS, ENSENADA POZO CERRO NEGRO, COMUNA DE HUASCO - III REGIÓN PERT N°215032011</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143280989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143281568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR DE ENSENADA CHAPACO, AL NORESTE DE PUNTA LARGA, COMUNA DE HUASCO - III REGIÓN PERT N°215032001</t>
+          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR AL SUROESTE DE PUNTA CARRIZAL, COMUNA DE HUASCO - III REGIÓN PERT N°215032012</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143284505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143280989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR, AL SUR DE PUNTA LOBOS - SECTOR 1, COMUNA DE HUASCO - III REGIÓN PERT N°215032005</t>
+          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR DE ENSENADA CHAPACO, AL NORESTE DE PUNTA LARGA, COMUNA DE HUASCO - III REGIÓN PERT N°215032001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/05/2019</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143282959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143284505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR AL NOROESTE DE CABO NORTE, COMUNA DE HUASCO - III REGIÓN PERT N°215032003</t>
+          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR, AL SUR DE PUNTA LOBOS - SECTOR 1, COMUNA DE HUASCO - III REGIÓN PERT N°215032005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143284338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143282959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR DE ENSENADA CHAPACO, AL OESTE DE PUNTA MOLLE, COMUNA DE HUASCO - III REGIÓN PERT N°215032010</t>
+          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR AL NOROESTE DE CABO NORTE, COMUNA DE HUASCO - III REGIÓN PERT N°215032003</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143268109&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143284338&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR, AL SUR DE PUNTA LOBOS, COMUNA DE HUASCO - III REGIÓN</t>
+          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR DE ENSENADA CHAPACO, AL OESTE DE PUNTA MOLLE, COMUNA DE HUASCO - III REGIÓN PERT N°215032010</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03/05/2019</t>
+          <t>24/05/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143075413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143268109&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR AL NORTE DE PUNTA LOS POZOS, COMUNA DE HUASCO - III REGIÓN</t>
+          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR, AL SUR DE PUNTA LOBOS, COMUNA DE HUASCO - III REGIÓN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143076011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143075413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cultivo Comercial de Dorado (Seriola lalandi) en el Sector de Ensenada Chapaco, al Noreste de Punta Larga, Comuna de Huasco ? III Región.</t>
+          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR AL NORTE DE PUNTA LOS POZOS, COMUNA DE HUASCO - III REGIÓN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>30/04/2019</t>
+          <t>03/05/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143060317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143076011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR AL NOROESTE DE CABO NORTE, COMUNA DE HUASCO - III REGIÓN</t>
+          <t>Cultivo Comercial de Dorado (Seriola lalandi) en el Sector de Ensenada Chapaco, al Noreste de Punta Larga, Comuna de Huasco ? III Región.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143070675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143060317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR DE ENSENADA CHAPACO, AL OESTE DE PUNTA MOLLE, COMUNA DE HUASCO - III REGIÓN</t>
+          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR AL NOROESTE DE CABO NORTE, COMUNA DE HUASCO - III REGIÓN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143071179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143070675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR AL SUROESTE DE PUNTA CARRIZAL, COMUNA DE HUASCO - III REGIÓN</t>
+          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR DE ENSENADA CHAPACO, AL OESTE DE PUNTA MOLLE, COMUNA DE HUASCO - III REGIÓN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143071528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143071179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
+          <t>CULTIVO COMERCIAL DE DORADO (Seriola lalandi), EN EL SECTOR AL SUROESTE DE PUNTA CARRIZAL, COMUNA DE HUASCO - III REGIÓN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hilmar SpA</t>
+          <t>Luis Alejandro Salgado Ibáñez</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3400</v>
+        <v>7000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>30/04/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143071528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cese de la descarga de Relaves en Ensenada Chapaco</t>
+          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Hilmar SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>11000</v>
+        <v>3400</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05/10/2018</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141484530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sistema de Control de Emisiones Planta de Pellets de Huasco</t>
+          <t>Cese de la descarga de Relaves en Ensenada Chapaco</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>40000</v>
+        <v>11000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>30/05/2018</t>
+          <t>05/10/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139226312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141484530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/04/2018</t>
+          <t>30/05/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138996231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139226312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Planta Desalinizadora Guacolda</t>
+          <t>Sistema de Control de Emisiones Planta de Pellets de Huasco</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>145000</v>
+        <v>40000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>27/04/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138239989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138996231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Proyecto Minero Mariposa</t>
+          <t>Planta Desalinizadora Guacolda</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>161000</v>
+        <v>145000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138239989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Optimización en almacenamiento y suministro de combustible en Mina Los Colorados.</t>
+          <t>Proyecto Minero Mariposa</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1100</v>
+        <v>161000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30/11/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Optimización en almacenamiento y suministro de combustible en Mina Los Colorados.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>1100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/10/2016</t>
+          <t>30/11/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ELIMINACIÓN DEL USO DE PETCOKE EN CENTRAL GUACOLDA Y AJUSTE DE LA CAPACIDAD DE GENERACIÓN ELÉCTRICA</t>
+          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>72000</v>
+        <v>30</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/08/2016</t>
+          <t>12/10/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131701498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>ELIMINACIÓN DEL USO DE PETCOKE EN CENTRAL GUACOLDA Y AJUSTE DE LA CAPACIDAD DE GENERACIÓN ELÉCTRICA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10000</v>
+        <v>72000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/08/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131701498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ELIMINACIÓN DEL USO DE PETCOKE EN CENTRAL GUACOLDA Y AJUSTE DE LA CAPACIDAD DE GENERACIÓN ELÉCTRICA</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>72000</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/07/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131607494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>ELIMINACIÓN DEL USO DE PETCOKE EN CENTRAL GUACOLDA Y AJUSTE DE LA CAPACIDAD DE GENERACIÓN ELÉCTRICA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>72000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/11/2015</t>
+          <t>21/07/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131607494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05/08/2015</t>
+          <t>30/11/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>05/08/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>219</v>
+        <v>800</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>800</v>
+        <v>219</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Recepción y embarque de graneles minerales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Puerto Las Losas S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128712551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Recepción y embarque de graneles minerales</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Puerto Las Losas S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12500</v>
+        <v>80000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128712551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,40 +2680,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>43000</v>
+        <v>219</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>03/07/2013</t>
+          <t>17/07/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Actualización del Sistema de Depositación de Relaves de Planta de Pellets</t>
+          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>15000</v>
+        <v>43000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>27/06/2013</t>
+          <t>03/07/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8283652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,40 +2776,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Actualización del Sistema de Depositación de Relaves de Planta de Pellets</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>27/06/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8283652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Adaptación de Unidades a la Nueva Norma de Emisión Para Centrales Termoeléctricas</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04/06/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8212932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Adaptación de Unidades a la Nueva Norma de Emisión Para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>220000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>04/06/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8212932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>212</v>
+        <v>2475</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,30 +3016,30 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Proyecto Cerro Blanco</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>380000</v>
+        <v>212</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>28/02/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,40 +3064,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Proyecto Cerro Blanco</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>210</v>
+        <v>380000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>28/02/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2450</v>
+        <v>210</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Producción y Comercialización de Mineral de Hierro Mina Teatinos</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CHAW AUSTRAL S.A.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>8000</v>
+        <v>2450</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06/12/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7580054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>24/10/2012</t>
+          <t>06/12/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7466116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7580054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Guanaku Turismo Sustentable</t>
+          <t>Producción y Comercialización de Mineral de Hierro Mina Teatinos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Felipe Omar Vera Soto</t>
+          <t>CHAW AUSTRAL S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>32</v>
+        <v>8000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>28/09/2012</t>
+          <t>24/10/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7379116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7466116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Turismo en Areas Silvestres Guanaku Limitada</t>
+          <t>Felipe Omar Vera Soto</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>14/09/2012</t>
+          <t>28/09/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7346973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7379116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Felipe Omar Vera Soto</t>
+          <t>Turismo en Areas Silvestres Guanaku Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07/09/2012</t>
+          <t>14/09/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7140763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7346973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero Comuna de Huasco Vertedero Huasco</t>
+          <t>Guanaku Turismo Sustentable</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Huasco</t>
+          <t>Felipe Omar Vera Soto</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>624</v>
+        <v>32</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>26/06/2012</t>
+          <t>07/09/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7060849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7140763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cierre y Selledo Vertedero Comuna de Huasco</t>
+          <t>Cierre y Sellado Vertedero Comuna de Huasco Vertedero Huasco</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>26/06/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6930481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7060849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Cierre y Selledo Vertedero Comuna de Huasco</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Ilustre Municipalidad de Huasco</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5000</v>
+        <v>624</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6930481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliación Subestación Eléctrica Los Colorados</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5300</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>26/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6191085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ampliación Subestación Eléctrica (S/E) Planta Pellets</t>
+          <t>Ampliación Subestación Eléctrica Los Colorados</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4100</v>
+        <v>5300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6195343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6191085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Ampliación Subestación Eléctrica (S/E) Planta Pellets</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>319</v>
+        <v>4100</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>26/10/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6195343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Recuperación de Mineral de Hierro Contenido en Rechazos de la Planta de Beneficio Los Colorados</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>7600</v>
+        <v>1750</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Recuperación de Mineral de HIerro Contenido en Rechazos de Planta de Beneficio Los Colorados</t>
+          <t>Recuperación de Mineral de Hierro Contenido en Rechazos de la Planta de Beneficio Los Colorados</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,21 +4187,21 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>21/07/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4768853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Recuperación de Mineral de HIerro Contenido en Rechazos de Planta de Beneficio Los Colorados</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>21/07/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4768853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vallenar</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>21/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Vallenar</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>21/06/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Construcción Camino Costero Sector Quebrada Tongoy - Huasco, Dm 0,000 km a DM 19,860 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>7</v>
+        <v>2000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>30/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4140549&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Construcción Camino Costero Sector Quebrada Tongoy - Huasco, Dm 0,000 km a DM 19,860 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>377</v>
+        <v>7</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/10/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4140549&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Construcción Camino Costero Sector Quebrada Tongoy - Huasco, Dm 0,000 a Dm.19,860. Región de Atacama (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>12720</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>05/10/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Construcción Camino Costero Sector Quebrada Tongoy - Huasco, Dm 0,000 a Dm.19,860. Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>12720</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>05/10/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,36 +5224,40 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>169000</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,40 +5272,36 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>91</v>
+        <v>169000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,15 +5331,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,25 +5379,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,17 +5435,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5470,30 +5470,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,10 +5508,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -5519,25 +5523,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>347000</v>
+        <v>7</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/04/2009</t>
+          <t>11/06/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5552,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Punta Alcalde</t>
+          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -5563,15 +5567,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.4</v>
+        <v>347000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>27/02/2009</t>
+          <t>07/04/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5581,7 +5585,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,40 +5600,36 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Termoeléctrica Punta Alcalde</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>1.4</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>27/02/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5659,15 +5659,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,36 +5692,40 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Unidad 5 Central Térmica Guacolda S.A</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>235000</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>22/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3510778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5736,40 +5740,36 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Unidad 5 Central Térmica Guacolda S.A</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>235000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>22/01/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3510778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5784,40 +5784,40 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Morro</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5832,40 +5832,40 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Contractual Minera El Morro</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1750</v>
+        <v>2.5</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5895,25 +5895,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5991,25 +5991,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6039,15 +6039,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6087,15 +6087,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6130,16 +6130,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CONAF, Región de Atacama</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6148,12 +6148,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6178,30 +6178,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>CONAF, Región de Atacama</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6231,25 +6231,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6279,25 +6279,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6335,17 +6335,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6375,25 +6375,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6423,25 +6423,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE LA CAPACIDAD DE ALMACENAMIENTO DE COMBUSTIBLES SÓLIDOS EN CENTRAL TÉRMICA GUACOLDA (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6466,30 +6466,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>21000</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>27/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2924733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
+          <t>AMPLIACIÓN DE LA CAPACIDAD DE ALMACENAMIENTO DE COMBUSTIBLES SÓLIDOS EN CENTRAL TÉRMICA GUACOLDA (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6523,11 +6523,11 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>19/05/2008</t>
+          <t>27/05/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2924733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6567,25 +6567,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>7</v>
+        <v>11000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>19/05/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6610,30 +6610,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1750</v>
+        <v>7</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sitio 2 Puerto Las Losas (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6658,30 +6658,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Puerto Las Losas S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>6700</v>
+        <v>1750</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>19/02/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2719289&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6696,10 +6696,14 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto Puerto Punta Alcalde</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
+          <t>Sitio 2 Puerto Las Losas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6707,25 +6711,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Vallenar Iron Company</t>
+          <t>Puerto Las Losas S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>30000</v>
+        <v>6700</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>04/12/2007</t>
+          <t>19/02/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2719289&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6740,40 +6744,36 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Puerto Punta Alcalde</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Sociedad Contractual Minera Vallenar Iron Company</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>429</v>
+        <v>30000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>04/12/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6803,25 +6803,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6851,15 +6851,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6899,25 +6899,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6932,40 +6932,40 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Incremento de Generación y Control de Emisiones del Complejo Generador Central Térmica Guacolda S.A.</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>230000</v>
+        <v>300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>26/04/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7003,17 +7003,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>19/04/2007</t>
+          <t>26/04/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2127068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7028,12 +7028,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de alimentos (e-seia)</t>
+          <t>Incremento de Generación y Control de Emisiones del Complejo Generador Central Térmica Guacolda S.A.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -7043,25 +7043,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>7000</v>
+        <v>230000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>05/04/2007</t>
+          <t>19/04/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2127068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Ferroviario de alimentos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7086,20 +7086,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>7000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>05/04/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7143,21 +7143,21 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Puerto Punta Alcalde (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7182,30 +7182,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Vallenar Iron Company</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>22/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1943464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Puerto Punta Alcalde (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7230,20 +7230,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad Contractual Minera Vallenar Iron Company</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>22/01/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1943464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7291,17 +7291,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7331,25 +7331,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7387,17 +7387,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7475,15 +7475,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FLEXIBILIZACIÓN UNIDAD Nº3 (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7518,30 +7518,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300000</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>11/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>FLEXIBILIZACIÓN UNIDAD Nº3 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7566,20 +7566,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>80</v>
+        <v>300000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>11/08/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1624510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FLEXIBILIZACIÓN UNIDAD Nº3 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7614,30 +7614,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>300000</v>
+        <v>80</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>08/08/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1613171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7652,7 +7652,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>FLEXIBILIZACIÓN UNIDAD Nº3 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7662,30 +7662,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>138</v>
+        <v>300000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>08/08/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1613171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7715,25 +7715,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7763,15 +7763,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7781,7 +7781,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Puerto Las Losas (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7806,30 +7806,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Puerto Las Losas S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20000</v>
+        <v>138</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>09/06/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Puerto Las Losas (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7854,30 +7854,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Puerto Las Losas S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>09/06/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7907,25 +7907,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7940,7 +7940,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7955,15 +7955,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8003,15 +8003,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8036,30 +8036,30 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Central Guacolda Unidad Nº 3</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>250000</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>29/07/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Agroindustrial del Valle de Huasco</t>
+          <t>Central Guacolda Unidad Nº 3</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8099,15 +8099,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>29/07/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8132,30 +8132,30 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Proyecto Agroindustrial del Valle de Huasco</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8190,20 +8190,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>SEREMI MINVU ATACAMA</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8213,7 +8213,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Prospección Minera Azucar (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8243,25 +8243,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Minera Condor S.A.</t>
+          <t>SEREMI MINVU ATACAMA</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>19/05/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=356962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Flexibilización de la Operación en la Central Termoeléctrica Guacolda (e-seia)</t>
+          <t>Prospección Minera Azucar (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8291,25 +8291,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Minera Condor S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>10/05/2004</t>
+          <t>19/05/2004</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=347620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=356962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8324,7 +8324,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Declaracion de Impacto Ambiental Plan Regulador Comunal Comuna de Huasco (e-seia)</t>
+          <t>Flexibilización de la Operación en la Central Termoeléctrica Guacolda (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Huasco</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>16/02/2004</t>
+          <t>10/05/2004</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=347620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>RUTA COSTERA, SECTOR PUERTO VIEJO CARRIZAL BAJO, REGIÓN DE ATACAMA (e-seia)</t>
+          <t>Declaracion de Impacto Ambiental Plan Regulador Comunal Comuna de Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8387,15 +8387,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ilustre Municipalidad de Huasco</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>16728</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>18/11/2003</t>
+          <t>16/02/2004</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=198828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=253415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>RUTA COSTERA, SECTOR PUERTO VIEJO CARRIZAL BAJO, REGIÓN DE ATACAMA (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8430,20 +8430,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>16728</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>18/11/2003</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=198828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8483,15 +8483,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>04/11/2002</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8531,25 +8531,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>04/11/2002</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivo y Desarrollo y Engorda del Camarón Tigre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8574,20 +8574,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Granja Marina Camarones de Chile S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>25/04/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Diseño de Instalación del Servicio de Agua Potable Rural Carrizal Bajo</t>
+          <t>Cultivo y Desarrollo y Engorda del Camarón Tigre</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8627,25 +8627,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Granja Marina Camarones de Chile S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>23/01/2001</t>
+          <t>25/04/2001</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico para la Producción de Concentrados de Minerales de Hierro</t>
+          <t>Diseño de Instalación del Servicio de Agua Potable Rural Carrizal Bajo</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8675,15 +8675,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>7120</v>
+        <v>230</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>22/12/2000</t>
+          <t>23/01/2001</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Mejoramiento Tecnológico para la Producción de Concentrados de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8718,20 +8718,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>110</v>
+        <v>7120</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>22/12/2000</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8756,30 +8756,30 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Usos de Mezclas de Carbón y Petcoke en Central Termoeléctrica Guacolda</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>23/07/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ampliación y Habilitación Terminal Marítimo Las Losas Huasco III Región</t>
+          <t>Usos de Mezclas de Carbón y Petcoke en Central Termoeléctrica Guacolda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8819,15 +8819,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>11200</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>04/01/1999</t>
+          <t>23/07/1999</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8852,12 +8852,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Costero Huasco-Caldera-Chañaral</t>
+          <t>Ampliación y Habilitación Terminal Marítimo Las Losas Huasco III Región</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -8867,15 +8867,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, III Región</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>19/11/1998</t>
+          <t>04/01/1999</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Exploración Minera Azúcar</t>
+          <t>Plan Regulador Intercomunal Costero Huasco-Caldera-Chañaral</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8915,25 +8915,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>David Marcus Mitchell</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, III Región</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>24/04/1998</t>
+          <t>19/11/1998</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Construcción de Emisario Submarino Alcantarillado Huasco</t>
+          <t>Exploración Minera Azúcar</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8963,25 +8963,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>David Marcus Mitchell</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2720</v>
+        <v>11600</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>21/04/1998</t>
+          <t>24/04/1998</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Estudio Ingeniería Red de Alcantarillado y Disposición Final de Aguas Servidas Huasco Bajo Comuna de Huasco</t>
+          <t>Construcción de Emisario Submarino Alcantarillado Huasco</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9011,15 +9011,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Huasco</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>960</v>
+        <v>2720</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>06/04/1998</t>
+          <t>21/04/1998</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Explotación Minera y Producción de Clinker y Cemento</t>
+          <t>Estudio Ingeniería Red de Alcantarillado y Disposición Final de Aguas Servidas Huasco Bajo Comuna de Huasco</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -9059,15 +9059,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Minera Melón S.A.</t>
+          <t>Ilustre Municipalidad de Huasco</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>150000</v>
+        <v>960</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>28/01/1998</t>
+          <t>06/04/1998</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Mejoramiento de Servicios Administrativos Parque Nacional LLanos de Challe</t>
+          <t>Explotación Minera y Producción de Clinker y Cemento</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -9107,15 +9107,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>Minera Melón S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>60</v>
+        <v>150000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>10/12/1997</t>
+          <t>28/01/1998</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9140,7 +9140,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Reparaciones Escuela F-101 Huasco Bajo</t>
+          <t>Mejoramiento de Servicios Administrativos Parque Nacional LLanos de Challe</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Huasco</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>07/07/1997</t>
+          <t>10/12/1997</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Reposición Casa del Profesor Localidad Canto del Agua</t>
+          <t>Reparaciones Escuela F-101 Huasco Bajo</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9236,12 +9236,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Los Colorados Este</t>
+          <t>Reposición Casa del Profesor Localidad Canto del Agua</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -9251,15 +9251,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Ilustre Municipalidad de Huasco</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>93000</v>
+        <v>30</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>05/11/1996</t>
+          <t>07/07/1997</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9269,7 +9269,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9284,7 +9284,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Domiciliarias para la Ciudad de Huasco</t>
+          <t>Los Colorados Este</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9299,25 +9299,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Huasco</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>93000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>20/10/1996</t>
+          <t>05/11/1996</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9332,43 +9332,91 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
+          <t>Sistema de Tratamiento de Aguas Servidas Domiciliarias para la Ciudad de Huasco</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Ilustre Municipalidad de Huasco</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>20/10/1996</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2586&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Huasco</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
           <t>Central Termoeléctrica Guacolda y Vertedero</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>Guacolda Energía SpA</t>
         </is>
       </c>
-      <c r="F188" t="n">
+      <c r="F189" t="n">
         <v>480000</v>
       </c>
-      <c r="G188" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>26/12/1994</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr">
+      <c r="I189" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr">
+      <c r="J189" t="inlineStr">
         <is>
           <t>Huasco</t>
         </is>

--- a/data/Huasco.xlsx
+++ b/data/Huasco.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6130,16 +6130,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>CONAF, Región de Atacama</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6148,12 +6148,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6178,16 +6178,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CONAF, Región de Atacama</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6196,12 +6196,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Huasco.xlsx
+++ b/data/Huasco.xlsx
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6130,16 +6130,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CONAF, Región de Atacama</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6148,12 +6148,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Implementación y Construcción de Sendero Centenario en el Parque Nacional Llanos de Challe (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6178,16 +6178,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>CONAF, Región de Atacama</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6196,12 +6196,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Huasco.xlsx
+++ b/data/Huasco.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
